--- a/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,1</t>
+          <t>0,0; 47,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 133,12</t>
+          <t>0,0; 89,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,34</t>
+          <t>0,0; 57,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,9</t>
+          <t>0,0; 133,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">

--- a/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,08</t>
+          <t>-11,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,43</t>
+          <t>43,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,08%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>98,61%</t>
         </is>
       </c>
     </row>
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 0,0</t>
+          <t>-54,65; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 71,44</t>
+          <t>-25,0; 88,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 0,0</t>
+          <t>-54,65; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 253,89</t>
+          <t>-25,39; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,34</t>
+          <t>-44,33; 17,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,9</t>
+          <t>-49,11; 20,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,1</t>
+          <t>0,0; 67,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 133,12</t>
+          <t>0,0; 203,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 16,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 17,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 19,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 21,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-11,93; 16,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 16,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 19,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 20,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 0,0</t>
+          <t>-52,17; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 88,05</t>
+          <t>-18,53; 87,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 0,0</t>
+          <t>-52,17; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,39; —</t>
+          <t>-25,0; —</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 17,42</t>
+          <t>-39,77; 18,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 20,94</t>
+          <t>-43,93; 21,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,08</t>
+          <t>0,0; 67,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 203,67</t>
+          <t>0,0; 208,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 16,34</t>
+          <t>-11,39; 16,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 16,67</t>
+          <t>-4,47; 16,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 19,64</t>
+          <t>-11,89; 20,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 20,23</t>
+          <t>-4,71; 21,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 0,0</t>
+          <t>-48,99; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 87,29</t>
+          <t>-13,38; 87,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 0,0</t>
+          <t>-48,99; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,0; —</t>
+          <t>-18,09; —</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 18,07</t>
+          <t>-40,31; 18,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 21,84</t>
+          <t>-44,0; 22,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,64</t>
+          <t>0,0; 68,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 208,74</t>
+          <t>0,0; 217,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 16,46</t>
+          <t>-13,86; 16,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 16,96</t>
+          <t>-2,76; 17,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 20,25</t>
+          <t>-14,33; 19,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 21,01</t>
+          <t>-2,93; 21,45</t>
         </is>
       </c>
     </row>
